--- a/_sources/Historia/historia.xlsx
+++ b/_sources/Historia/historia.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7FA6B2-18EC-48E9-A852-855A8B158DB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA93C51A-587D-4B6F-BF7C-0B0E9B5BA0CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="terv" sheetId="1" r:id="rId1"/>
+    <sheet name="terv régi" sheetId="1" r:id="rId1"/>
+    <sheet name="terv" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
   <si>
     <t>users</t>
   </si>
@@ -68,6 +69,132 @@
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>név</t>
+  </si>
+  <si>
+    <t>szint</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>vendég</t>
+  </si>
+  <si>
+    <t>témakörök</t>
+  </si>
+  <si>
+    <t>témakör</t>
+  </si>
+  <si>
+    <t>emelt</t>
+  </si>
+  <si>
+    <t>lkjhlk</t>
+  </si>
+  <si>
+    <t>áéljk</t>
+  </si>
+  <si>
+    <t>poih</t>
+  </si>
+  <si>
+    <t>ioujhg</t>
+  </si>
+  <si>
+    <t>kidoglozás</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>források</t>
+  </si>
+  <si>
+    <t>témakörId</t>
+  </si>
+  <si>
+    <t>likn</t>
+  </si>
+  <si>
+    <t>lkjh</t>
+  </si>
+  <si>
+    <t>élkj</t>
+  </si>
+  <si>
+    <t>áélkj</t>
+  </si>
+  <si>
+    <t>tesztkérdések</t>
+  </si>
+  <si>
+    <t>kérdés</t>
+  </si>
+  <si>
+    <t>kérdésKategória</t>
+  </si>
+  <si>
+    <t>Évszám</t>
+  </si>
+  <si>
+    <t>Ki kicsoda</t>
+  </si>
+  <si>
+    <t>Helyszín</t>
+  </si>
+  <si>
+    <t>válaszok</t>
+  </si>
+  <si>
+    <t>válasz</t>
+  </si>
+  <si>
+    <t>helyesVálasz</t>
+  </si>
+  <si>
+    <t>Mikor volt az aranybulla</t>
+  </si>
+  <si>
+    <t>tesztkérdésekTár</t>
+  </si>
+  <si>
+    <t>tesztkérdésTárId</t>
+  </si>
+  <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>válaszId</t>
+  </si>
+  <si>
+    <t>userTesztjei</t>
+  </si>
+  <si>
+    <t>tesztek</t>
+  </si>
+  <si>
+    <t>teszt1</t>
+  </si>
+  <si>
+    <t>teszt2</t>
+  </si>
+  <si>
+    <t>userTesztId</t>
+  </si>
+  <si>
+    <t>Százalék</t>
+  </si>
+  <si>
+    <t>kérdésTípus</t>
+  </si>
+  <si>
+    <t>kérdésTípusId</t>
   </si>
 </sst>
 </file>
@@ -97,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,14 +247,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -202,16 +345,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>405765</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>443865</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -226,8 +369,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1624965" y="476250"/>
-          <a:ext cx="3089910" cy="1438275"/>
+          <a:off x="1859280" y="657225"/>
+          <a:ext cx="3089910" cy="1436370"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -256,15 +399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
+      <xdr:colOff>398145</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -279,8 +422,502 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4200525" y="1905000"/>
-          <a:ext cx="1285875" cy="1301116"/>
+          <a:off x="4229100" y="2072640"/>
+          <a:ext cx="1398270" cy="1308736"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Egyenes összekötő nyíllal 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09FDD0B-61A9-4829-96D0-5059DBE1C299}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1082040" y="5353050"/>
+          <a:ext cx="4842510" cy="190501"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>973455</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>97156</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Egyenes összekötő nyíllal 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409E8A19-91BF-4C0B-8228-1BC7B5F3EA78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2876550" y="2486025"/>
+          <a:ext cx="2383155" cy="2678431"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>293371</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Egyenes összekötő nyíllal 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6294118-BFB7-42C3-950E-98E2169C8FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7620000" y="5132070"/>
+          <a:ext cx="3103246" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Egyenes összekötő nyíllal 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E389D719-B16F-49AE-8FFC-81D64A54BAC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="2428875"/>
+          <a:ext cx="6212205" cy="26670"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1005840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Egyenes összekötő nyíllal 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCFE6BB-0BF2-4935-95FB-ABB8597783C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4053840" y="619125"/>
+          <a:ext cx="5448300" cy="11430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Egyenes összekötő nyíllal 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAC9B0D-CF6F-4329-8344-70BBDD9C9326}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4000500" y="2505075"/>
+          <a:ext cx="1123950" cy="1424940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Összekötő: görbe 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1A1D6F8-81CD-4BE7-82BA-96D070F94FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13744575" y="2023110"/>
+          <a:ext cx="866775" cy="186690"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Téglalap 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{883FD594-5042-45D0-89E0-EAA44DB95D56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12553950" y="1824990"/>
+          <a:ext cx="1190625" cy="396240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="hu-HU" sz="1400"/>
+            <a:t>témakörök</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Egyenes összekötő nyíllal 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52A6DE9B-DED9-4331-8CB8-E5D27DE14FDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3977640" y="672465"/>
+          <a:ext cx="2013585" cy="1851660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -574,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,4 +1400,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB2069A-DCB3-49CC-AAD2-0366B3E6485D}">
+  <dimension ref="B2:U32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" customWidth="1"/>
+    <col min="10" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1222</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1245</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:21" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1121</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1234</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>6</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="1">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <v>4</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>4</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>